--- a/biology/Zoologie/Hyposcada_illinissa/Hyposcada_illinissa.xlsx
+++ b/biology/Zoologie/Hyposcada_illinissa/Hyposcada_illinissa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hyposcada illinissa est une espèce de lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Hyposcada.
@@ -512,14 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyposcada illinissa a été décrit par l'entomologiste anglais William Chapman Hewitson en 1851 sous le nom initial d'Ithonia illinissa[1].
-Synonymie
-Ithonia illinissa ( Hewitsonr, 1851) Protonyme
-Nom vernaculaire
-Hyposcada illinissa se nomme Illinissa Glasswing en anglais[2].
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hyposcada illinissa a été décrit par l'entomologiste anglais William Chapman Hewitson en 1851 sous le nom initial d'Ithonia illinissa.</t>
         </is>
       </c>
     </row>
@@ -544,12 +553,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ithonia illinissa ( Hewitsonr, 1851) Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyposcada illinissa se nomme Illinissa Glasswing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sous-espèces[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-espèces
 Hyposcada illinissa illinissa; présent au Brésil
 Hyposcada illinissa abida (Hewitson, 1871); présent en Colombie.
 Hyposcada illinissa aesion (Godman &amp; Salvin, 1878); présent à Panama.
@@ -559,7 +643,7 @@
 Hyposcada illinissa dujardini (Brévignon, 1993); présent au Surinam, en Guyana et en Guyane.
 Hyposcada illinissa ida (Haensch, 1903); présent en Équateur
 Hyposcada illinissa idina (Haensch, 1905); présent au Pérou.
-Hyposcada illinissa ilerdinoides (Staudinger, [1884]); présent au Brésil
+Hyposcada illinissa ilerdinoides (Staudinger, ); présent au Brésil
 Hyposcada illinissa margarita (Fox, 1941); présent au Pérou.
 Hyposcada illinissa napirida (Zikán, 1941); présent au Brésil
 Hyposcada illinissa napoensis (Vitale &amp; Bollino, 2001); présent en Équateur
@@ -567,7 +651,7 @@
 Hyposcada illinissa sspLamas &amp; Willmott; présent en Équateur
 Hyposcada illinissa sspLamas &amp; Willmott; présent en Colombie.
 Hyposcada illinissa sspLamas &amp; Willmott; présent au Brésil
-Hyposcada illinissa sspLamas &amp; Willmott; présent au Pérou[1].
+Hyposcada illinissa sspLamas &amp; Willmott; présent au Pérou.
 			Hyposcada illinissa dujardini - MHNT
 			Hyposcada illinissa sinilia - face dorsale
 			Hyposcada illinissa sinilia - face ventrale
@@ -575,69 +659,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hyposcada_illinissa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyposcada_illinissa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyposcada illinissa est un papillon à corps fin, d'une envergure d'environ 47 mm, aux ailes ailes à apex arrondi et aux ailes antérieures à bord interne concave[3]. Les ailes, largement bordées de noir avec aux ailes antérieures des barres noires délimitant plusieurs plages, sont de couleur différente suivent les sous-espèces jaune pour Hyposcada illinissa aesion et Hyposcada illinissa sinilia, bleutées transparentes ou verdies transparentes
-Le revers est semblable avec une bordure orange ou une ligne submarginale de points blancs suivant les sous-espèces.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hyposcada_illinissa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hyposcada_illinissa</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sa biologie est mal connue[2].
-Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -659,16 +680,155 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyposcada illinissa est un papillon à corps fin, d'une envergure d'environ 47 mm, aux ailes ailes à apex arrondi et aux ailes antérieures à bord interne concave. Les ailes, largement bordées de noir avec aux ailes antérieures des barres noires délimitant plusieurs plages, sont de couleur différente suivent les sous-espèces jaune pour Hyposcada illinissa aesion et Hyposcada illinissa sinilia, bleutées transparentes ou verdies transparentes
+Le revers est semblable avec une bordure orange ou une ligne submarginale de points blancs suivant les sous-espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyposcada illinissa est présent à Panama,  en Colombie, en Équateur,  en Bolivie, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane[1].
-Biotope
-Hyposcada illinissa réside dans la forêt tropicale humide[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyposcada illinissa est présent à Panama,  en Colombie, en Équateur,  en Bolivie, au Pérou, au Brésil, au Surinam, en Guyana et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyposcada illinissa réside dans la forêt tropicale humide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyposcada_illinissa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Hyposcada illinissa, sur Wikimedia CommonsHyposcada illinissa, sur Wikispecies
 </t>
